--- a/config_4.13/act_ty_gifts_config.xlsx
+++ b/config_4.13/act_ty_gifts_config.xlsx
@@ -305,10 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>act_002_ltlb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>欢乐礼包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,6 +397,10 @@
   </si>
   <si>
     <t>"任意购买1个礼包,彩球增加10%;\n任意购买2个礼包,彩球增加30%;\n任意购买3个礼包,彩球增加50%。"</t>
+  </si>
+  <si>
+    <t>act_002_hllb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -788,7 +788,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -868,13 +868,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E3" s="1">
         <v>1618272000</v>
@@ -886,7 +886,7 @@
         <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -1244,40 +1244,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="J6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>22</v>
@@ -1288,40 +1288,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="J7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>22</v>
@@ -1335,37 +1335,37 @@
         <v>61</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="J8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>22</v>
@@ -1379,37 +1379,37 @@
         <v>62</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="O9" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="P9" s="8" t="s">
         <v>22</v>

--- a/config_4.13/act_ty_gifts_config.xlsx
+++ b/config_4.13/act_ty_gifts_config.xlsx
@@ -222,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"100万金币","7万","福气加成"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"300万金币","12万","福气加成"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,85 +317,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10515,10516,10517</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10518,10519,10520,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10521,10522,10523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10524,10525,10526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_integral_gift_buy_nor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_integral_gift_buy_v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_integral_gift_buy_v4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_integral_gift_buy_v8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fffae1","af2a22"</t>
+  </si>
+  <si>
+    <t>"60万金币","6万","彩球加成"</t>
+  </si>
+  <si>
+    <t>"100万金币","12万","彩球加成"</t>
+  </si>
+  <si>
+    <t>"180万金币","18万","彩球加成"</t>
+  </si>
+  <si>
+    <t>"300万金币","12万","彩球加成"</t>
+  </si>
+  <si>
+    <t>"480万金币","18万","彩球加成"</t>
+  </si>
+  <si>
+    <t>"980万金币","38万","彩球加成"</t>
+  </si>
+  <si>
+    <t>"1980万金币","80万","彩球加成"</t>
+  </si>
+  <si>
+    <t>"4980万金币","180万","彩球加成"</t>
+  </si>
+  <si>
+    <t>"fkfl_btn_bx3","ty_icon_yb_5","com_icon_cljc"</t>
+  </si>
+  <si>
+    <t>"fkfl_btn_bx2","ty_icon_yb_4","com_icon_cljc"</t>
+  </si>
+  <si>
+    <t>"fkfl_btn_bx","ty_icon_yb_3","com_icon_cljc"</t>
+  </si>
+  <si>
+    <t>"任意购买1个礼包,彩球增加10%;\n任意购买2个礼包,彩球增加30%;\n任意购买3个礼包,彩球增加50%。"</t>
+  </si>
+  <si>
+    <t>act_002_hllb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","7万","彩球加成"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","7万","福气加成"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>gift_hllb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10515,10516,10517</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10518,10519,10520,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10521,10522,10523</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10524,10525,10526</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_integral_gift_buy_nor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_integral_gift_buy_v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_integral_gift_buy_v4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_integral_gift_buy_v8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"fffae1","af2a22"</t>
-  </si>
-  <si>
-    <t>"60万金币","6万","彩球加成"</t>
-  </si>
-  <si>
-    <t>"100万金币","12万","彩球加成"</t>
-  </si>
-  <si>
-    <t>"180万金币","18万","彩球加成"</t>
-  </si>
-  <si>
-    <t>"100万金币","7万","彩球加成"</t>
-  </si>
-  <si>
-    <t>"300万金币","12万","彩球加成"</t>
-  </si>
-  <si>
-    <t>"480万金币","18万","彩球加成"</t>
-  </si>
-  <si>
-    <t>"980万金币","38万","彩球加成"</t>
-  </si>
-  <si>
-    <t>"1980万金币","80万","彩球加成"</t>
-  </si>
-  <si>
-    <t>"4980万金币","180万","彩球加成"</t>
-  </si>
-  <si>
-    <t>"fkfl_btn_bx3","ty_icon_yb_5","com_icon_cljc"</t>
-  </si>
-  <si>
-    <t>"fkfl_btn_bx2","ty_icon_yb_4","com_icon_cljc"</t>
-  </si>
-  <si>
-    <t>"fkfl_btn_bx","ty_icon_yb_3","com_icon_cljc"</t>
-  </si>
-  <si>
-    <t>"任意购买1个礼包,彩球增加10%;\n任意购买2个礼包,彩球增加30%;\n任意购买3个礼包,彩球增加50%。"</t>
-  </si>
-  <si>
-    <t>act_002_hllb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +789,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -868,13 +869,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1">
         <v>1618272000</v>
@@ -886,7 +887,7 @@
         <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -988,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1071,10 +1072,10 @@
         <v>29</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>30</v>
@@ -1086,10 +1087,10 @@
         <v>41</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>34</v>
@@ -1115,10 +1116,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>30</v>
@@ -1127,13 +1128,13 @@
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>34</v>
@@ -1159,10 +1160,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>30</v>
@@ -1171,13 +1172,13 @@
         <v>15</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>34</v>
@@ -1203,10 +1204,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>30</v>
@@ -1215,13 +1216,13 @@
         <v>15</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>34</v>
@@ -1244,40 +1245,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="J6" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>22</v>
@@ -1288,40 +1289,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>22</v>
@@ -1332,40 +1333,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" s="8" t="s">
+      <c r="O8" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>22</v>
@@ -1376,40 +1377,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" s="8" t="s">
+      <c r="O9" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="P9" s="8" t="s">
         <v>22</v>
